--- a/ExamPlatForm_WorkStat.xlsx
+++ b/ExamPlatForm_WorkStat.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\LearingSpringUsingSTS\ExamPlatform\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6B0D2A5-6D51-4D84-9B81-6DD6427528A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C2441E2-9CFC-442E-B801-BBBC7F2D81DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4A74D532-02F1-4374-A5A7-249A72CCF3A7}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Sno</t>
   </si>
@@ -56,16 +56,28 @@
   </si>
   <si>
     <t>Adding Code for Adding Questions and fecthing Question thruogh get and post Request</t>
+  </si>
+  <si>
+    <t>TicketNo: 03</t>
+  </si>
+  <si>
+    <t>Change For Adding Questions from Screen, Will be resume tomorrow</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -416,10 +428,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A51AEE2-D4D4-4AD1-9EC1-11518439A80F}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -473,7 +485,22 @@
         <v>7</v>
       </c>
     </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2">
+        <v>44512</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/ExamPlatForm_WorkStat.xlsx
+++ b/ExamPlatForm_WorkStat.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\LearingSpringUsingSTS\ExamPlatform\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C2441E2-9CFC-442E-B801-BBBC7F2D81DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC2B2BEB-504C-4EBC-8D16-7307F4791DDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4A74D532-02F1-4374-A5A7-249A72CCF3A7}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Sno</t>
   </si>
@@ -62,6 +62,12 @@
   </si>
   <si>
     <t>Change For Adding Questions from Screen, Will be resume tomorrow</t>
+  </si>
+  <si>
+    <t>TicketNo: 04</t>
+  </si>
+  <si>
+    <t>Integration of UI add question with backend Spring Boot</t>
   </si>
 </sst>
 </file>
@@ -428,10 +434,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A51AEE2-D4D4-4AD1-9EC1-11518439A80F}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -499,6 +505,20 @@
         <v>9</v>
       </c>
     </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2">
+        <v>44513</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ExamPlatForm_WorkStat.xlsx
+++ b/ExamPlatForm_WorkStat.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\LearingSpringUsingSTS\ExamPlatform\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC2B2BEB-504C-4EBC-8D16-7307F4791DDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F66292C0-DF3C-4C17-826F-BC2E8548E0C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4A74D532-02F1-4374-A5A7-249A72CCF3A7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4A74D532-02F1-4374-A5A7-249A72CCF3A7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Sno</t>
   </si>
@@ -68,6 +68,12 @@
   </si>
   <si>
     <t>Integration of UI add question with backend Spring Boot</t>
+  </si>
+  <si>
+    <t>TicketNo: 05</t>
+  </si>
+  <si>
+    <t>Adding UI for update Question for Admin Login, Expected to be complete by Tomorrow EOD.</t>
   </si>
 </sst>
 </file>
@@ -109,16 +115,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -434,10 +437,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A51AEE2-D4D4-4AD1-9EC1-11518439A80F}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -445,7 +448,7 @@
     <col min="1" max="1" width="8.88671875" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.21875" style="1" customWidth="1"/>
     <col min="3" max="3" width="14.109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="59.44140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="93.6640625" style="1" customWidth="1"/>
     <col min="5" max="16384" width="12.33203125" style="1"/>
   </cols>
   <sheetData>
@@ -477,7 +480,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -487,7 +490,7 @@
       <c r="C4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -517,6 +520,20 @@
       </c>
       <c r="D6" s="1" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>4</v>
+      </c>
+      <c r="B7" s="2">
+        <v>44514</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/ExamPlatForm_WorkStat.xlsx
+++ b/ExamPlatForm_WorkStat.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\LearingSpringUsingSTS\ExamPlatform\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F66292C0-DF3C-4C17-826F-BC2E8548E0C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36B2DA9D-07C3-4CCF-B3F0-1190A030BB73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4A74D532-02F1-4374-A5A7-249A72CCF3A7}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Sno</t>
   </si>
@@ -74,6 +74,12 @@
   </si>
   <si>
     <t>Adding UI for update Question for Admin Login, Expected to be complete by Tomorrow EOD.</t>
+  </si>
+  <si>
+    <t>TicketNo: 06</t>
+  </si>
+  <si>
+    <t>Adding UI for update Question for Admin Login. Completed.</t>
   </si>
 </sst>
 </file>
@@ -437,7 +443,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A51AEE2-D4D4-4AD1-9EC1-11518439A80F}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
@@ -524,7 +530,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B7" s="2">
         <v>44514</v>
@@ -534,6 +540,20 @@
       </c>
       <c r="D7" s="1" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2">
+        <v>44518</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/ExamPlatForm_WorkStat.xlsx
+++ b/ExamPlatForm_WorkStat.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\LearingSpringUsingSTS\ExamPlatform\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36B2DA9D-07C3-4CCF-B3F0-1190A030BB73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70D3DA42-83DD-47B0-BF69-172C2D0C0A03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4A74D532-02F1-4374-A5A7-249A72CCF3A7}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Sno</t>
   </si>
@@ -80,6 +80,12 @@
   </si>
   <si>
     <t>Adding UI for update Question for Admin Login. Completed.</t>
+  </si>
+  <si>
+    <t>TicketNo: 07</t>
+  </si>
+  <si>
+    <t>Adding UI for Delete Question.</t>
   </si>
 </sst>
 </file>
@@ -443,10 +449,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A51AEE2-D4D4-4AD1-9EC1-11518439A80F}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -556,6 +562,20 @@
         <v>15</v>
       </c>
     </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2">
+        <v>44519</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ExamPlatForm_WorkStat.xlsx
+++ b/ExamPlatForm_WorkStat.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\LearingSpringUsingSTS\ExamPlatform\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70D3DA42-83DD-47B0-BF69-172C2D0C0A03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C21E0490-B7A0-43AC-A206-46A2D91710E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4A74D532-02F1-4374-A5A7-249A72CCF3A7}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Sno</t>
   </si>
@@ -86,6 +86,12 @@
   </si>
   <si>
     <t>Adding UI for Delete Question.</t>
+  </si>
+  <si>
+    <t>TicketNo: 08</t>
+  </si>
+  <si>
+    <t>Adding RestAPI to get questions for test for Aptitude Module</t>
   </si>
 </sst>
 </file>
@@ -449,10 +455,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A51AEE2-D4D4-4AD1-9EC1-11518439A80F}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -567,13 +573,27 @@
         <v>7</v>
       </c>
       <c r="B9" s="2">
-        <v>44519</v>
+        <v>44518</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2">
+        <v>44518</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/ExamPlatForm_WorkStat.xlsx
+++ b/ExamPlatForm_WorkStat.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\LearingSpringUsingSTS\ExamPlatform\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C21E0490-B7A0-43AC-A206-46A2D91710E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66058D5B-AFC9-405B-9B4D-AF330D56C339}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4A74D532-02F1-4374-A5A7-249A72CCF3A7}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t>Sno</t>
   </si>
@@ -92,6 +92,9 @@
   </si>
   <si>
     <t>Adding RestAPI to get questions for test for Aptitude Module</t>
+  </si>
+  <si>
+    <t>Adding RestAPI to get questions for test for Aptitude + English Module</t>
   </si>
 </sst>
 </file>
@@ -455,10 +458,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A51AEE2-D4D4-4AD1-9EC1-11518439A80F}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -596,6 +599,20 @@
         <v>19</v>
       </c>
     </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2">
+        <v>44518</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ExamPlatForm_WorkStat.xlsx
+++ b/ExamPlatForm_WorkStat.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\LearingSpringUsingSTS\ExamPlatform\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66058D5B-AFC9-405B-9B4D-AF330D56C339}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35333D76-3353-4692-B57A-6012EF7FE3DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4A74D532-02F1-4374-A5A7-249A72CCF3A7}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>Sno</t>
   </si>
@@ -95,6 +95,12 @@
   </si>
   <si>
     <t>Adding RestAPI to get questions for test for Aptitude + English Module</t>
+  </si>
+  <si>
+    <t>TicketNo: 09</t>
+  </si>
+  <si>
+    <t>Feature Added: UserResponses will be expoted to XML file</t>
   </si>
 </sst>
 </file>
@@ -458,10 +464,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A51AEE2-D4D4-4AD1-9EC1-11518439A80F}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -613,6 +619,20 @@
         <v>20</v>
       </c>
     </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" s="2">
+        <v>44520</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ExamPlatForm_WorkStat.xlsx
+++ b/ExamPlatForm_WorkStat.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\LearingSpringUsingSTS\ExamPlatform\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35333D76-3353-4692-B57A-6012EF7FE3DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68169E97-A306-4CA9-9803-2193EC3BD145}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4A74D532-02F1-4374-A5A7-249A72CCF3A7}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>Sno</t>
   </si>
@@ -100,7 +100,13 @@
     <t>TicketNo: 09</t>
   </si>
   <si>
-    <t>Feature Added: UserResponses will be expoted to XML file</t>
+    <t>Feature Added: UserResponses will be exported to XML file</t>
+  </si>
+  <si>
+    <t>TicketNo: 10</t>
+  </si>
+  <si>
+    <t>Adding TestResponse Table Code</t>
   </si>
 </sst>
 </file>
@@ -464,10 +470,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A51AEE2-D4D4-4AD1-9EC1-11518439A80F}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -633,6 +639,20 @@
         <v>22</v>
       </c>
     </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" s="2">
+        <v>44521</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
